--- a/DOCs/20BD-BaseDeDadosReconhecimentoFarcial.xlsx
+++ b/DOCs/20BD-BaseDeDadosReconhecimentoFarcial.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lrgal\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lucianogalhardo/PROJETOS/Checkin_Alunos/DOCs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F66FE49A-ECA1-4B8C-BA71-C6F1F5817BA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47906E8D-B4B2-E146-AD41-E848E3ADC90C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Página1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="29">
   <si>
     <t>MATRICULA</t>
   </si>
@@ -104,6 +104,9 @@
   </si>
   <si>
     <t>ANDERSON BELARMINO DA SILVA</t>
+  </si>
+  <si>
+    <t>usuario</t>
   </si>
 </sst>
 </file>
@@ -161,28 +164,52 @@
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="15">
+  <dxfs count="18">
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF434343"/>
@@ -314,8 +341,8 @@
   </dxfs>
   <tableStyles count="1">
     <tableStyle name="Página1-style" pivot="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="firstRowStripe" dxfId="14"/>
-      <tableStyleElement type="secondRowStripe" dxfId="13"/>
+      <tableStyleElement type="firstRowStripe" dxfId="17"/>
+      <tableStyleElement type="secondRowStripe" dxfId="16"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -330,18 +357,19 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_1" displayName="Table_1" ref="A2:J30" headerRowCount="0" headerRowDxfId="12" dataDxfId="10" totalsRowDxfId="11">
-  <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Column1" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Column2" dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Column3" dataDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Column4" dataDxfId="6"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Column5" dataDxfId="5"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Column6" dataDxfId="4"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Column7" dataDxfId="3"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Column8" dataDxfId="2"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Column9" dataDxfId="1"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Column10" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_1" displayName="Table_1" ref="A2:K30" headerRowCount="0" headerRowDxfId="15" dataDxfId="14" totalsRowDxfId="13">
+  <tableColumns count="11">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Column1" dataDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Column2" dataDxfId="11"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Column3" dataDxfId="10"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Column4" dataDxfId="9"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Column5" dataDxfId="8"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Column6" dataDxfId="7"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Column7" dataDxfId="6"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Column8" dataDxfId="5"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Column9" dataDxfId="4"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Column10" dataDxfId="3"/>
+    <tableColumn id="11" xr3:uid="{D1775C65-7548-F441-9F50-998C8E1BDFF4}" name="Coluna1" headerRowDxfId="1" dataDxfId="2" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="Página1-style" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -550,533 +578,545 @@
   </sheetPr>
   <dimension ref="A1:K30"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="13.140625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="39.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.7109375" style="4" customWidth="1"/>
-    <col min="4" max="4" width="45.7109375" style="4" customWidth="1"/>
-    <col min="5" max="5" width="48.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.7109375" style="4" customWidth="1"/>
-    <col min="7" max="7" width="45.7109375" style="4" customWidth="1"/>
-    <col min="8" max="8" width="40.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.7109375" style="4" customWidth="1"/>
-    <col min="10" max="10" width="45.7109375" style="4" customWidth="1"/>
-    <col min="11" max="16384" width="12.5703125" style="1"/>
+    <col min="1" max="1" width="13.1640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="39.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.6640625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="45.6640625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="48.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.6640625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="45.6640625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="40.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.6640625" style="3" customWidth="1"/>
+    <col min="10" max="10" width="45.6640625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="7" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:11" s="6" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="3">
+      <c r="K1" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+      <c r="A2" s="2">
         <v>2901447</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="2">
         <v>81986271008</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="2">
         <v>81984942129</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="3">
+      <c r="I2" s="2">
         <v>81996993720</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="K2" s="2"/>
-    </row>
-    <row r="3" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="3">
+      <c r="K2" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+      <c r="A3" s="2">
         <v>3301933</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="2">
         <v>81986271008</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="2">
         <v>81984942129</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="3">
+      <c r="I3" s="2">
         <v>81996993720</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="J3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="K3" s="2"/>
-    </row>
-    <row r="4" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="3">
+      <c r="K3" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+      <c r="A4" s="2">
         <v>2901470</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="2">
         <v>81986271008</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="2">
         <v>81984942129</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="3">
+      <c r="I4" s="2">
         <v>81996993720</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="J4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="K4" s="2"/>
-    </row>
-    <row r="5" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A5" s="3">
+      <c r="K4" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+      <c r="A5" s="2">
         <v>2910771</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="2">
         <v>81986271008</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="2">
         <v>81984942129</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="I5" s="3">
+      <c r="I5" s="2">
         <v>81996993720</v>
       </c>
-      <c r="J5" s="3" t="s">
+      <c r="J5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="K5" s="2"/>
-    </row>
-    <row r="6" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A6" s="3">
+      <c r="K5" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+      <c r="A6" s="2">
         <v>3316890</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="2">
         <v>81986271008</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="2">
         <v>81984942129</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="G6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="H6" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="I6" s="3">
+      <c r="I6" s="2">
         <v>81996993720</v>
       </c>
-      <c r="J6" s="3" t="s">
+      <c r="J6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="K6" s="2"/>
-    </row>
-    <row r="7" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A7" s="3"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="2"/>
-    </row>
-    <row r="8" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A8" s="3"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="2"/>
-    </row>
-    <row r="9" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A9" s="3"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="2"/>
-    </row>
-    <row r="10" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A10" s="3"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="2"/>
-    </row>
-    <row r="11" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A11" s="3"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="2"/>
-    </row>
-    <row r="12" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A12" s="3"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="2"/>
-    </row>
-    <row r="13" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A13" s="3"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="2"/>
-    </row>
-    <row r="14" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A14" s="3"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="2"/>
-    </row>
-    <row r="15" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A15" s="3"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="2"/>
-    </row>
-    <row r="16" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A16" s="3"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="2"/>
-    </row>
-    <row r="17" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A17" s="3"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="K17" s="2"/>
-    </row>
-    <row r="18" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A18" s="3"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="2"/>
-    </row>
-    <row r="19" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A19" s="3"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="2"/>
-    </row>
-    <row r="20" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A20" s="3"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="K20" s="2"/>
-    </row>
-    <row r="21" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A21" s="3"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="K21" s="2"/>
-    </row>
-    <row r="22" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A22" s="3"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-      <c r="K22" s="2"/>
-    </row>
-    <row r="23" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A23" s="3"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-      <c r="K23" s="2"/>
-    </row>
-    <row r="24" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A24" s="3"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-      <c r="K24" s="2"/>
-    </row>
-    <row r="25" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A25" s="3"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-      <c r="K25" s="2"/>
-    </row>
-    <row r="26" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A26" s="3"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
-      <c r="K26" s="2"/>
-    </row>
-    <row r="27" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A27" s="3"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
-      <c r="K27" s="2"/>
-    </row>
-    <row r="28" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A28" s="3"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
-      <c r="K28" s="2"/>
-    </row>
-    <row r="29" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A29" s="3"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
-      <c r="K29" s="2"/>
-    </row>
-    <row r="30" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A30" s="3"/>
-      <c r="B30" s="2"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
-      <c r="H30" s="3"/>
-      <c r="I30" s="3"/>
-      <c r="J30" s="3"/>
-      <c r="K30" s="2"/>
+      <c r="K6" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+      <c r="A7" s="2"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="7"/>
+    </row>
+    <row r="8" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+      <c r="A8" s="2"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="7"/>
+    </row>
+    <row r="9" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+      <c r="A9" s="2"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="7"/>
+    </row>
+    <row r="10" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+      <c r="A10" s="2"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="7"/>
+    </row>
+    <row r="11" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+      <c r="A11" s="2"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="7"/>
+    </row>
+    <row r="12" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+      <c r="A12" s="2"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="7"/>
+    </row>
+    <row r="13" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+      <c r="A13" s="2"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="7"/>
+    </row>
+    <row r="14" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+      <c r="A14" s="2"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="7"/>
+    </row>
+    <row r="15" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+      <c r="A15" s="2"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="7"/>
+    </row>
+    <row r="16" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+      <c r="A16" s="2"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="7"/>
+    </row>
+    <row r="17" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+      <c r="A17" s="2"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="7"/>
+    </row>
+    <row r="18" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+      <c r="A18" s="2"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="7"/>
+    </row>
+    <row r="19" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+      <c r="A19" s="2"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="7"/>
+    </row>
+    <row r="20" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+      <c r="A20" s="2"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="7"/>
+    </row>
+    <row r="21" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+      <c r="A21" s="2"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="7"/>
+    </row>
+    <row r="22" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+      <c r="A22" s="2"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="7"/>
+    </row>
+    <row r="23" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+      <c r="A23" s="2"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="7"/>
+    </row>
+    <row r="24" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+      <c r="A24" s="2"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="7"/>
+    </row>
+    <row r="25" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+      <c r="A25" s="2"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="7"/>
+    </row>
+    <row r="26" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+      <c r="A26" s="2"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="7"/>
+    </row>
+    <row r="27" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+      <c r="A27" s="2"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="7"/>
+    </row>
+    <row r="28" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+      <c r="A28" s="2"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="7"/>
+    </row>
+    <row r="29" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+      <c r="A29" s="2"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="7"/>
+    </row>
+    <row r="30" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+      <c r="A30" s="2"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
